--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127629.2092780625</v>
+        <v>119985.147424032</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426641</v>
+        <v>10494200.71426642</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3489337.656064728</v>
+        <v>3489337.656064726</v>
       </c>
     </row>
     <row r="11">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>104.8891084057995</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796777</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>30.70785528783136</v>
       </c>
       <c r="W8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
     </row>
     <row r="9">
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="V9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="W9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="X9" t="n">
-        <v>104.8891084057995</v>
+        <v>104.8891084057992</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>91.32747982963507</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616409</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>104.8891084057995</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>256.6584539847831</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>350.7854257602672</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>77.20378078338656</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>47.09262707756074</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.6251682162969</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>189.0019335287526</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1666,16 +1666,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>81.30766987963975</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>175.6738267513496</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.50583343253361</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>123.9099174567684</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>25.47996054760893</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>29.30026393667308</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>224.4032842719477</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>183.4872045441995</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>62.50002140993289</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>12.58005816774377</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,7 +2320,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>129.6384948720828</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.166913757864215</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2383,10 +2383,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>85.1488807209182</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>26.23442655955977</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>149.6157531058518</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>172.5998412330488</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>132.1049606362619</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2775,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>210.2317846102413</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>188.2025250083868</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>153.4400545567958</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2854,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>170.3034090720304</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>164.1073186119663</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>252.4843751595153</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>156.7012890994295</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>51.77925078256501</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>237.0384485584316</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>128.3640563204302</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>226.0943009001717</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.54611103346261</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,10 +3441,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>214.5646102646769</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>128.3640563204295</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>323.2115213346352</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>86.87739406814509</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>106.4438755113824</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>317.3056281449302</v>
       </c>
       <c r="X41" t="n">
-        <v>196.2048876063474</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>89.30668535812342</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>232.869035976681</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>252.0430507630244</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>93.00664472099383</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>52.46272922979684</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.7620855184075</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="C8" t="n">
-        <v>235.7620855184075</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7620855184075</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="E8" t="n">
-        <v>235.7620855184075</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="F8" t="n">
-        <v>115.4753071926894</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585576</v>
+        <v>23.57954741585557</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558039</v>
+        <v>55.41632306558006</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318071</v>
+        <v>103.1313969318066</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183096</v>
+        <v>162.3261653183089</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590932</v>
+        <v>228.1917507590923</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326582</v>
+        <v>295.123110232657</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336424</v>
+        <v>358.324495033641</v>
       </c>
       <c r="P8" t="n">
-        <v>412.265414745567</v>
+        <v>412.2654147455655</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245013</v>
+        <v>452.7727990244995</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698419</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698438</v>
+        <v>401.4050834648239</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698438</v>
+        <v>401.4050834648239</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698438</v>
+        <v>401.4050834648239</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698438</v>
+        <v>370.3870478205498</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441257</v>
+        <v>370.3870478205498</v>
       </c>
       <c r="X8" t="n">
-        <v>235.7620855184075</v>
+        <v>370.3870478205498</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.7620855184075</v>
+        <v>250.1002694948322</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160444</v>
+        <v>42.50045791160436</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367932</v>
+        <v>61.46222338483255</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029953</v>
+        <v>93.87090076414836</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186846</v>
+        <v>137.4483669798375</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761005</v>
+        <v>194.5479887760998</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936375</v>
+        <v>246.7467599936365</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999702</v>
+        <v>294.4984377999691</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018323</v>
+        <v>332.823369101831</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328075</v>
+        <v>358.442570732806</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698419</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698419</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698419</v>
       </c>
       <c r="U9" t="n">
-        <v>356.0488638441257</v>
+        <v>356.0488638441242</v>
       </c>
       <c r="V9" t="n">
-        <v>235.7620855184075</v>
+        <v>235.7620855184066</v>
       </c>
       <c r="W9" t="n">
-        <v>115.4753071926894</v>
+        <v>115.4753071926889</v>
       </c>
       <c r="X9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396878</v>
+        <v>370.3870478205498</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396878</v>
+        <v>250.1002694948322</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396878</v>
+        <v>129.8134911691145</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396838</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642511</v>
+        <v>43.65210454220968</v>
       </c>
       <c r="K10" t="n">
-        <v>139.3157865734615</v>
+        <v>63.20089061716148</v>
       </c>
       <c r="L10" t="n">
-        <v>164.3315023379186</v>
+        <v>88.21660638161859</v>
       </c>
       <c r="M10" t="n">
-        <v>190.7070671493737</v>
+        <v>206.1096778186545</v>
       </c>
       <c r="N10" t="n">
-        <v>226.4599947154596</v>
+        <v>324.0027492556903</v>
       </c>
       <c r="O10" t="n">
-        <v>344.3530661524959</v>
+        <v>441.8958206927261</v>
       </c>
       <c r="P10" t="n">
-        <v>462.2461375895323</v>
+        <v>462.2461375895304</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698419</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698438</v>
+        <v>462.6370274464438</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698438</v>
+        <v>462.6370274464438</v>
       </c>
       <c r="T10" t="n">
-        <v>370.3870478205513</v>
+        <v>462.6370274464438</v>
       </c>
       <c r="U10" t="n">
-        <v>250.1002694948332</v>
+        <v>462.6370274464438</v>
       </c>
       <c r="V10" t="n">
-        <v>129.813491169115</v>
+        <v>462.6370274464438</v>
       </c>
       <c r="W10" t="n">
-        <v>9.526712843396878</v>
+        <v>462.6370274464438</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396878</v>
+        <v>462.6370274464438</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396878</v>
+        <v>462.6370274464438</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1178.570277437541</v>
+        <v>1144.102679307047</v>
       </c>
       <c r="C11" t="n">
-        <v>1178.570277437541</v>
+        <v>705.9602064904707</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.570277437541</v>
+        <v>705.9602064904707</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>705.9602064904707</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>705.9602064904707</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>306.4575151699478</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.406501800136</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435813</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228023</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447736</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W11" t="n">
-        <v>2005.998864558577</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X11" t="n">
-        <v>1586.856401137888</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y11" t="n">
-        <v>1178.570277437541</v>
+        <v>1144.102679307047</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,25 +5111,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5141,7 +5141,7 @@
         <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807678</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R12" t="n">
         <v>1676.651116233592</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>413.3628026016838</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>997.5438780199984</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1567.301592981533</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
-        <v>1685.067474329294</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2133.343424477319</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2118.080353351143</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1831.124845221573</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W13" t="n">
-        <v>1559.098440807865</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316.9281030050443</v>
+        <v>1065.487716428707</v>
       </c>
       <c r="C14" t="n">
-        <v>316.9281030050443</v>
+        <v>1065.487716428707</v>
       </c>
       <c r="D14" t="n">
-        <v>316.9281030050443</v>
+        <v>1065.487716428707</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>1065.487716428707</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>637.6202868379146</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>238.1175955173917</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.402314586986</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1486.402314586986</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X14" t="n">
-        <v>1067.259851166297</v>
+        <v>1065.487716428707</v>
       </c>
       <c r="Y14" t="n">
-        <v>658.9737274659502</v>
+        <v>1065.487716428707</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.5713050663906</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030328</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495861</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765398</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927014</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.228421128053</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669329</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461537</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C16" t="n">
-        <v>299.0935147726011</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D16" t="n">
-        <v>299.0935147726011</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>129.3355110233383</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5448,7 +5448,7 @@
         <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5460,7 +5460,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
@@ -5475,13 +5475,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>716.4307943255671</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="C17" t="n">
-        <v>716.4307943255671</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D17" t="n">
-        <v>716.4307943255671</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E17" t="n">
-        <v>716.4307943255671</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
         <v>716.4307943255671</v>
@@ -5509,58 +5509,58 @@
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1982.928423347031</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1982.928423347031</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715607</v>
+        <v>1578.072968758064</v>
       </c>
     </row>
     <row r="18">
@@ -5576,22 +5576,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,7 +5600,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>941.3221210718611</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>768.7604095550861</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>602.8824167566088</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>433.124413007346</v>
       </c>
       <c r="F19" t="n">
         <v>407.3870791208724</v>
@@ -5670,55 +5670,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U19" t="n">
-        <v>2088.484127152484</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V19" t="n">
-        <v>1801.528619022914</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W19" t="n">
-        <v>1529.502214609206</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X19" t="n">
-        <v>1284.110459942618</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>1133.140739790848</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1106.599419841793</v>
+        <v>701.7439652528254</v>
       </c>
       <c r="C20" t="n">
-        <v>668.4569470252168</v>
+        <v>701.7439652528254</v>
       </c>
       <c r="D20" t="n">
-        <v>232.5471621996613</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E20" t="n">
-        <v>232.5471621996613</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>232.5471621996613</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>232.5471621996613</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027048</v>
+        <v>1536.32965943808</v>
       </c>
       <c r="Y20" t="n">
-        <v>1532.898990326701</v>
+        <v>1128.043535737733</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
         <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R21" t="n">
         <v>1676.651116233592</v>
@@ -5886,58 +5886,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>730.9745012407179</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>558.4127897239429</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D22" t="n">
-        <v>558.4127897239429</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E22" t="n">
-        <v>388.6547859746801</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="F22" t="n">
-        <v>211.9477319364363</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1395.604545312184</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.212790645597</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>922.7931199597051</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>758.2694786073424</v>
+        <v>447.8760776233098</v>
       </c>
       <c r="C23" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D23" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E23" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F23" t="n">
-        <v>320.1270057907657</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.855172792597</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X23" t="n">
-        <v>1592.855172792597</v>
+        <v>874.1756481082176</v>
       </c>
       <c r="Y23" t="n">
-        <v>1184.56904909225</v>
+        <v>874.1756481082176</v>
       </c>
     </row>
     <row r="24">
@@ -6047,37 +6047,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J24" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,58 +6123,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.655226289377</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>299.093514772602</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>133.2155219741246</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E25" t="n">
-        <v>47.20655154895474</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>116.6355901513737</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>488.1941452900674</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1030.274828676326</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M25" t="n">
-        <v>1160.879221014856</v>
+        <v>875.5973915434844</v>
       </c>
       <c r="N25" t="n">
-        <v>1288.378132818745</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O25" t="n">
-        <v>1825.813263392288</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
         <v>1973.653814855378</v>
@@ -6183,16 +6183,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774552</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X25" t="n">
-        <v>890.8935156942559</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083642</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6214,64 +6214,64 @@
         <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2319.861207662534</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V26" t="n">
-        <v>1957.244257596361</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6284,37 +6284,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J27" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987886</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>732.1113136517137</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5496021349386</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2082.461684773928</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1804.075052822672</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1517.119544693102</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1517.119544693102</v>
       </c>
       <c r="X28" t="n">
-        <v>1136.285270360843</v>
+        <v>1271.727790026514</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.9299323707007</v>
+        <v>1044.308119340623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1745.473006065473</v>
+        <v>1190.980360647176</v>
       </c>
       <c r="C29" t="n">
-        <v>1307.330533248896</v>
+        <v>752.8378878305998</v>
       </c>
       <c r="D29" t="n">
-        <v>871.4207484233407</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E29" t="n">
-        <v>871.4207484233407</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U29" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V29" t="n">
-        <v>1745.473006065473</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W29" t="n">
-        <v>1745.473006065473</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X29" t="n">
-        <v>1745.473006065473</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="Y29" t="n">
-        <v>1745.473006065473</v>
+        <v>1381.083921261709</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L30" t="n">
         <v>551.5786779960906</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6618,7 +6618,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
         <v>192.6919004158277</v>
@@ -6630,16 +6630,16 @@
         <v>688.1212571728194</v>
       </c>
       <c r="M31" t="n">
-        <v>1272.302332591134</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N31" t="n">
-        <v>1399.801244395024</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,22 +6648,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>1973.653814855378</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="U31" t="n">
-        <v>1695.267182904121</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="V31" t="n">
-        <v>1529.502214609206</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W31" t="n">
-        <v>1529.502214609206</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X31" t="n">
-        <v>1284.110459942618</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y31" t="n">
         <v>1284.110459942618</v>
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>701.7439652528263</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>701.7439652528263</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>701.7439652528263</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>701.7439652528263</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895475</v>
+        <v>701.7439652528263</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895475</v>
+        <v>302.2412739323035</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6739,13 +6739,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>2202.043447044273</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X32" t="n">
-        <v>1782.900983623584</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="Y32" t="n">
-        <v>1782.900983623584</v>
+        <v>1128.043535737734</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,52 +6834,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>896.8524940391953</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C34" t="n">
-        <v>724.2907825224203</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D34" t="n">
-        <v>558.412789723943</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E34" t="n">
-        <v>388.6547859746802</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F34" t="n">
-        <v>211.9477319364364</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
@@ -6900,10 +6900,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>896.8524940391953</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y34" t="n">
-        <v>896.8524940391953</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>485.3490243655314</v>
+        <v>1474.419173756937</v>
       </c>
       <c r="C35" t="n">
-        <v>47.20655154895474</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
         <v>805.4408022867025</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>1889.485634438363</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>1526.86868437219</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W35" t="n">
-        <v>1122.013229783223</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X35" t="n">
-        <v>893.635148065878</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y35" t="n">
-        <v>485.3490243655314</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="36">
@@ -6995,31 +6995,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
         <v>551.5786779960906</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>621.5080762876948</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>621.5080762876948</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>621.5080762876948</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>451.7500725384321</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M37" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774552</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X37" t="n">
-        <v>890.8935156942559</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083642</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>755.070575821621</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C38" t="n">
-        <v>316.9281030050443</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>316.9281030050443</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586987</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="W38" t="n">
-        <v>1081.54685999802</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X38" t="n">
-        <v>755.070575821621</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y38" t="n">
-        <v>755.070575821621</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="39">
@@ -7235,28 +7235,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>807.9003835041283</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>635.3386719873532</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>469.4606791888759</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>299.7026754396132</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>299.7026754396132</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>134.9614950521316</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
@@ -7338,13 +7338,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>818.7256495113488</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954413</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
         <v>1657.620488527956</v>
@@ -7356,28 +7356,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>2252.808511274623</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1965.853003145054</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1693.826598731346</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>475.073981139747</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="C41" t="n">
-        <v>475.073981139747</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="D41" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867025</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>1999.350472162604</v>
       </c>
       <c r="X41" t="n">
-        <v>883.3601048400935</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="Y41" t="n">
-        <v>475.073981139747</v>
+        <v>1580.208008741915</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>753.852136908379</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C43" t="n">
-        <v>753.852136908379</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>497.5958522098859</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>497.5958522098859</v>
       </c>
       <c r="F43" t="n">
         <v>407.3870791208724</v>
@@ -7566,28 +7566,28 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>733.4227107706872</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M43" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,7 +7596,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
         <v>1973.653814855378</v>
@@ -7605,16 +7605,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.090426313258</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1173.090426313258</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.6707556273661</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1173.712709371907</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>735.5702365553307</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>735.5702365553307</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>301.7954917136258</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>301.7954917136258</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.855172792597</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1173.712709371907</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y44" t="n">
-        <v>1173.712709371907</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>273.4967179484205</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7836,22 +7836,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>2081.94094549648</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>2028.948289708806</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>6.30987286752184</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.309872867521761</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946634</v>
+        <v>106.497025394663</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.45392869271178</v>
       </c>
       <c r="K10" t="n">
-        <v>99.33766198190349</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>92.44192588442519</v>
       </c>
       <c r="N10" t="n">
-        <v>10.10557043794066</v>
+        <v>93.07541273182957</v>
       </c>
       <c r="O10" t="n">
-        <v>95.06085321698777</v>
+        <v>95.06085321698731</v>
       </c>
       <c r="P10" t="n">
-        <v>98.52803488912321</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8859,16 +8859,16 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.1674636999937</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9330,19 +9330,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>177.1920849464598</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.62967161639979</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
@@ -9807,13 +9807,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520618</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>175.7179764032066</v>
       </c>
       <c r="O31" t="n">
-        <v>141.4680432173448</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042869</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,16 +10986,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>45.75904403825037</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M43" t="n">
         <v>458.158265737157</v>
@@ -11232,13 +11232,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>302.9526642375982</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>314.6771375459505</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,10 +23032,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524234</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>292.1158482464162</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
         <v>282.3584801445919</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796774</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23080,16 +23080,16 @@
         <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>328.2829252776804</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006161</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440214</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208827</v>
       </c>
     </row>
     <row r="9">
@@ -23117,7 +23117,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.36037526809191</v>
+        <v>39.36037526809192</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>59.05530966656966</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>55.47593365518719</v>
+        <v>55.47593365518767</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615968</v>
+        <v>78.04243221616017</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167697</v>
+        <v>64.38561618167745</v>
       </c>
       <c r="X9" t="n">
-        <v>48.42965299770925</v>
+        <v>48.42965299770964</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>98.57295270216217</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914684</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23190,16 +23190,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>55.85607295540086</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>44.68149179608113</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.6621924374279</v>
+        <v>82.66219243742792</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616406</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
-        <v>137.8053513118222</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577344</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058129</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.2222298271104</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>10.36588195674551</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,13 +23317,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>50.02147428280978</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>93.63231361822075</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>195.8452100423609</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.41140656376183</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>78.02240241277602</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.63231361822159</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23673,7 +23673,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>93.63231361822176</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>373.5307413475251</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,10 +23740,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>132.5700671069328</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>149.4600229502524</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>246.3025016950714</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>207.1474027053522</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>83.53713139732919</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>100.5937471736739</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>256.7260822018276</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>304.1225532163281</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -24220,7 +24220,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>392.3407506494534</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>82.91154299085191</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -24384,7 +24384,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>257.8515264887141</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>106.8642314578494</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>228.2070588100282</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>107.7197912193655</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.91368936879149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>233.8340497716719</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>270.1487007380886</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>69.52134278359705</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>119.9786344363076</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>14.5399607820134</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>244.1056109436475</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>112.4399620879275</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>5.899388561490014</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>305.3969917679808</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>188.8567378863107</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.3543214983346</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>69.52134278359696</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>230.6267242450822</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>91.73951745184723</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>44.14322594633217</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25602,10 +25602,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>169.1588901203621</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>83.5012718981468</v>
       </c>
       <c r="X41" t="n">
-        <v>218.746151180135</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.63329813973792</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>36.43710439289038</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>143.4646136442932</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
@@ -25924,16 +25924,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448417</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>70.08712386261293</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>231.623223818477</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>88863.48115738852</v>
+        <v>88863.48115738816</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>392666.5065919025</v>
+        <v>392666.5065919026</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>392666.5065919025</v>
+        <v>392666.5065919026</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919025</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919024</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919024</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919024</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919025</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919025</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919025</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919024</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>392666.5065919026</v>
+        <v>392666.5065919025</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.2907864696</v>
+        <v>38163.29078646945</v>
       </c>
       <c r="E2" t="n">
         <v>173027.328430899</v>
@@ -26331,31 +26331,31 @@
         <v>173027.328430899</v>
       </c>
       <c r="H2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="I2" t="n">
         <v>173027.328430899</v>
       </c>
       <c r="J2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="K2" t="n">
         <v>173027.3284308991</v>
       </c>
       <c r="L2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="M2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="N2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="O2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="P2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730579</v>
+        <v>117708.4675730575</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.245018044</v>
+        <v>439858.2450180445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310202</v>
+        <v>30139.06600310189</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597479</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5701.383234911886</v>
+        <v>5701.383234911862</v>
       </c>
       <c r="E4" t="n">
-        <v>15620.10484543462</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="F4" t="n">
         <v>15620.10484543461</v>
       </c>
       <c r="G4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="H4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.10484543462</v>
       </c>
       <c r="I4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="J4" t="n">
         <v>15620.10484543461</v>
@@ -26447,7 +26447,7 @@
         <v>15620.10484543461</v>
       </c>
       <c r="L4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="M4" t="n">
         <v>15620.10484543461</v>
@@ -26456,7 +26456,7 @@
         <v>15620.10484543461</v>
       </c>
       <c r="O4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="P4" t="n">
         <v>15620.10484543461</v>
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239237</v>
+        <v>42922.56227239233</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="H5" t="n">
+        <v>46051.0812096378</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46051.0812096378</v>
+      </c>
+      <c r="J5" t="n">
+        <v>46051.0812096378</v>
+      </c>
+      <c r="K5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="L5" t="n">
         <v>46051.08120963782</v>
       </c>
-      <c r="H5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="K5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="L5" t="n">
-        <v>46051.08120963783</v>
-      </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-128169.1222938926</v>
+        <v>-129336.0210900434</v>
       </c>
       <c r="E6" t="n">
-        <v>-328502.1026422174</v>
+        <v>-329055.9830854399</v>
       </c>
       <c r="F6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326047</v>
       </c>
       <c r="G6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326046</v>
       </c>
       <c r="H6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326046</v>
       </c>
       <c r="I6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326047</v>
       </c>
       <c r="J6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326047</v>
       </c>
       <c r="K6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326047</v>
       </c>
       <c r="L6" t="n">
-        <v>81217.07637272461</v>
+        <v>80663.19592950278</v>
       </c>
       <c r="M6" t="n">
-        <v>-6018.439183921277</v>
+        <v>-6572.319627143437</v>
       </c>
       <c r="N6" t="n">
-        <v>111356.1423758267</v>
+        <v>110802.2619326046</v>
       </c>
       <c r="O6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326047</v>
       </c>
       <c r="P6" t="n">
-        <v>111356.1423758266</v>
+        <v>110802.2619326047</v>
       </c>
     </row>
   </sheetData>
@@ -26743,25 +26743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480477</v>
+        <v>94.2504821748044</v>
       </c>
       <c r="E3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="F3" t="n">
+        <v>466.7019280932212</v>
+      </c>
+      <c r="G3" t="n">
+        <v>466.7019280932211</v>
+      </c>
+      <c r="H3" t="n">
         <v>466.701928093221</v>
       </c>
-      <c r="F3" t="n">
-        <v>466.7019280932211</v>
-      </c>
-      <c r="G3" t="n">
-        <v>466.7019280932212</v>
-      </c>
-      <c r="H3" t="n">
-        <v>466.7019280932212</v>
-      </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932209</v>
       </c>
       <c r="K3" t="n">
         <v>466.7019280932212</v>
@@ -26770,16 +26770,16 @@
         <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="G4" t="n">
         <v>590.081894361934</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>590.081894361934</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="J4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="K4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="L4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="H4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.0818943619344</v>
-      </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480477</v>
+        <v>94.25048217480442</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184162</v>
+        <v>372.4514459184167</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194738</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424611</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194729</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194731</v>
+        <v>470.9979838194738</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529837</v>
+        <v>0.3788964107529822</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623996</v>
+        <v>3.880372866623981</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555442</v>
+        <v>14.60740387555436</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931989</v>
+        <v>48.1970443093197</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990153</v>
+        <v>59.79269533990129</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846299</v>
+        <v>66.53089438462965</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168183</v>
+        <v>67.60743381168156</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725684</v>
+        <v>63.83978262725659</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679254</v>
+        <v>54.48577748679233</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.9165497767013</v>
+        <v>40.91654977670114</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196213</v>
+        <v>23.80085166196204</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033625</v>
+        <v>8.634101960033592</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071187</v>
+        <v>1.65861903807118</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023869</v>
+        <v>0.03031171286023857</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250518</v>
+        <v>0.202727452225051</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857737</v>
+        <v>1.95792039385773</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888846</v>
+        <v>6.979870613888818</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780632</v>
+        <v>19.15329845780624</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688479</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211048</v>
+        <v>44.01764264211031</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852686</v>
+        <v>51.36651278526839</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.72603153286535</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619467</v>
+        <v>48.23401798619447</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006274</v>
+        <v>38.71205182006259</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542942</v>
+        <v>25.87798144542932</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779752</v>
+        <v>12.58688514779747</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531113</v>
+        <v>3.765573509531098</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457128</v>
+        <v>0.8171338973457096</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832271</v>
+        <v>0.01333733238322704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889922</v>
+        <v>0.1699598858889915</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540314</v>
+        <v>1.511097894540308</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643513</v>
+        <v>5.111157295643492</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.0161639323517</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055745</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803538</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063098</v>
+        <v>26.00849781063087</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254732</v>
+        <v>24.0230573254731</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333774</v>
+        <v>20.55587565333766</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839546</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517775</v>
+        <v>7.642014505517745</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083617</v>
+        <v>2.961937284083606</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075119</v>
+        <v>0.7261922397075091</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308676</v>
+        <v>0.00927053923030864</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
@@ -31773,28 +31773,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32168,28 +32168,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811321</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I25" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R25" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968722</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699057</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766672</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.69507212887993</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562334</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108063</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233621</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356903</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238409</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051973</v>
       </c>
       <c r="I28" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624555</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116987</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R28" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642302</v>
+        <v>14.19478239642296</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214608</v>
+        <v>32.15835924214596</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931989</v>
+        <v>48.1970443093197</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990154</v>
+        <v>59.79269533990134</v>
       </c>
       <c r="M8" t="n">
-        <v>66.5308943846299</v>
+        <v>66.53089438462968</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168183</v>
+        <v>67.60743381168157</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725685</v>
+        <v>63.83978262725657</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679247</v>
+        <v>54.48577748679236</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670129</v>
+        <v>40.91654977670112</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196216</v>
+        <v>23.80085166196199</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020966</v>
+        <v>33.30681320020962</v>
       </c>
       <c r="J9" t="n">
-        <v>25.46317132532816</v>
+        <v>19.15329845780624</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568848</v>
+        <v>32.73603775688466</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211047</v>
+        <v>44.0176426421103</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526861</v>
+        <v>57.67638565279015</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619466</v>
+        <v>48.23401798619449</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006281</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542933</v>
       </c>
       <c r="R9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>34.47009262506348</v>
       </c>
       <c r="K10" t="n">
-        <v>119.083910542461</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.26839976207789</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803537</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="N10" t="n">
-        <v>36.11406824857164</v>
+        <v>119.0839105424605</v>
       </c>
       <c r="O10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424604</v>
       </c>
       <c r="P10" t="n">
-        <v>119.083910542461</v>
+        <v>20.55587565333764</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.23182280839546</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K12" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742731</v>
@@ -35509,10 +35509,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233713</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.6394548420699</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916783</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35813,7 +35813,7 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712369</v>
+        <v>142.5533002411762</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916792</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
         <v>162.099668741586</v>
@@ -36208,22 +36208,22 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233713</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
         <v>547.556245844706</v>
@@ -36290,19 +36290,19 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36381,7 +36381,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811321</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70.13034202264538</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
         <v>547.556245844706</v>
@@ -36527,19 +36527,19 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785917</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108063</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R27" t="n">
         <v>62.32672164233622</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>167.054075126376</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.3636829242305</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
@@ -36998,13 +36998,13 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030951</v>
       </c>
       <c r="O31" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>452.8039900485103</v>
@@ -37074,10 +37074,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>254.5083025654566</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712374</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,10 +37320,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K36" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409515</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>170.881065874915</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
